--- a/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.5-40-0.xlsx
+++ b/Thesis/ModelForSensitivity/layoutSetup_baseCase3/Inputs/TRs/3600-0.5-40-0.xlsx
@@ -441,22 +441,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2">
+        <v>7</v>
+      </c>
+      <c r="B2">
+        <v>137</v>
+      </c>
+      <c r="C2">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>21</v>
-      </c>
-      <c r="C2">
+      <c r="D2">
         <v>27</v>
       </c>
-      <c r="D2">
-        <v>33</v>
-      </c>
       <c r="E2">
-        <v>21</v>
+        <v>137</v>
       </c>
       <c r="F2">
-        <v>239</v>
+        <v>1861</v>
       </c>
       <c r="G2" t="s">
         <v>8</v>
@@ -467,181 +467,181 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="B3">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="C3">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D3">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>210</v>
+        <v>168</v>
       </c>
       <c r="F3">
-        <v>1384</v>
+        <v>1785</v>
       </c>
       <c r="G3" t="s">
         <v>9</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B4">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="C4">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="D4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E4">
-        <v>402</v>
+        <v>197</v>
       </c>
       <c r="F4">
-        <v>582</v>
+        <v>1193</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="B5">
-        <v>441</v>
+        <v>261</v>
       </c>
       <c r="C5">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5">
-        <v>441</v>
+        <v>261</v>
       </c>
       <c r="F5">
-        <v>645</v>
+        <v>387</v>
       </c>
       <c r="G5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B6">
-        <v>517</v>
+        <v>280</v>
       </c>
       <c r="C6">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="D6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>517</v>
+        <v>280</v>
       </c>
       <c r="F6">
-        <v>812</v>
+        <v>386</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B7">
-        <v>568</v>
+        <v>281</v>
       </c>
       <c r="C7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E7">
-        <v>568</v>
+        <v>281</v>
       </c>
       <c r="F7">
-        <v>825</v>
+        <v>375</v>
       </c>
       <c r="G7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B8">
-        <v>777</v>
+        <v>532</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="D8">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="E8">
-        <v>777</v>
+        <v>532</v>
       </c>
       <c r="F8">
-        <v>1883</v>
+        <v>1787</v>
       </c>
       <c r="G8" t="s">
         <v>10</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>917</v>
+        <v>643</v>
       </c>
       <c r="C9">
+        <v>30</v>
+      </c>
+      <c r="D9">
+        <v>20</v>
+      </c>
+      <c r="E9">
+        <v>643</v>
+      </c>
+      <c r="F9">
+        <v>1623</v>
+      </c>
+      <c r="G9" t="s">
         <v>8</v>
-      </c>
-      <c r="D9">
-        <v>12</v>
-      </c>
-      <c r="E9">
-        <v>917</v>
-      </c>
-      <c r="F9">
-        <v>2156</v>
-      </c>
-      <c r="G9" t="s">
-        <v>10</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -649,48 +649,48 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10">
-        <v>990</v>
+        <v>675</v>
       </c>
       <c r="C10">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="E10">
-        <v>990</v>
+        <v>675</v>
       </c>
       <c r="F10">
-        <v>2416</v>
+        <v>801</v>
       </c>
       <c r="G10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B11">
-        <v>994</v>
+        <v>777</v>
       </c>
       <c r="C11">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E11">
-        <v>994</v>
+        <v>777</v>
       </c>
       <c r="F11">
-        <v>1229</v>
+        <v>905</v>
       </c>
       <c r="G11" t="s">
         <v>11</v>
@@ -701,77 +701,77 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>1083</v>
+        <v>783</v>
       </c>
       <c r="C12">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>15</v>
+        <v>40</v>
       </c>
       <c r="E12">
-        <v>1083</v>
+        <v>783</v>
       </c>
       <c r="F12">
-        <v>2879</v>
+        <v>922</v>
       </c>
       <c r="G12" t="s">
         <v>8</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13">
-        <v>7</v>
+        <v>35</v>
       </c>
       <c r="B13">
-        <v>1097</v>
+        <v>865</v>
       </c>
       <c r="C13">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D13">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E13">
-        <v>1097</v>
+        <v>865</v>
       </c>
       <c r="F13">
-        <v>2794</v>
+        <v>949</v>
       </c>
       <c r="G13" t="s">
         <v>8</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="B14">
-        <v>1155</v>
+        <v>885</v>
       </c>
       <c r="C14">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D14">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E14">
-        <v>1155</v>
+        <v>885</v>
       </c>
       <c r="F14">
-        <v>1403</v>
+        <v>1003</v>
       </c>
       <c r="G14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H14">
         <v>2</v>
@@ -779,22 +779,22 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B15">
-        <v>1282</v>
+        <v>891</v>
       </c>
       <c r="C15">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D15">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E15">
-        <v>1282</v>
+        <v>891</v>
       </c>
       <c r="F15">
-        <v>1488</v>
+        <v>2230</v>
       </c>
       <c r="G15" t="s">
         <v>11</v>
@@ -805,25 +805,25 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B16">
-        <v>1311</v>
+        <v>954</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E16">
-        <v>1311</v>
+        <v>954</v>
       </c>
       <c r="F16">
-        <v>1563</v>
+        <v>2480</v>
       </c>
       <c r="G16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H16">
         <v>1</v>
@@ -831,25 +831,25 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>1452</v>
+        <v>1311</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17">
-        <v>1452</v>
+        <v>1311</v>
       </c>
       <c r="F17">
-        <v>1699</v>
+        <v>2994</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -857,77 +857,77 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="B18">
-        <v>1574</v>
+        <v>1313</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="D18">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>1574</v>
+        <v>1313</v>
       </c>
       <c r="F18">
-        <v>3341</v>
+        <v>2459</v>
       </c>
       <c r="G18" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:8">
       <c r="A19">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B19">
-        <v>1763</v>
+        <v>1387</v>
       </c>
       <c r="C19">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D19">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>1763</v>
+        <v>1387</v>
       </c>
       <c r="F19">
-        <v>3326</v>
+        <v>1536</v>
       </c>
       <c r="G19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:8">
       <c r="A20">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="B20">
-        <v>1781</v>
+        <v>1436</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D20">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="E20">
-        <v>1781</v>
+        <v>1436</v>
       </c>
       <c r="F20">
-        <v>3086</v>
+        <v>2896</v>
       </c>
       <c r="G20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H20">
         <v>2</v>
@@ -935,25 +935,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21">
-        <v>2005</v>
+        <v>1479</v>
       </c>
       <c r="C21">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="E21">
-        <v>2005</v>
+        <v>1479</v>
       </c>
       <c r="F21">
-        <v>3195</v>
+        <v>1588</v>
       </c>
       <c r="G21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H21">
         <v>2</v>
@@ -961,259 +961,259 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="B22">
-        <v>2089</v>
+        <v>1721</v>
       </c>
       <c r="C22">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D22">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="E22">
-        <v>2089</v>
+        <v>1721</v>
       </c>
       <c r="F22">
-        <v>3569</v>
+        <v>1858</v>
       </c>
       <c r="G22" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>2184</v>
+        <v>1768</v>
       </c>
       <c r="C23">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D23">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="E23">
-        <v>2184</v>
+        <v>1768</v>
       </c>
       <c r="F23">
-        <v>3123</v>
+        <v>3220</v>
       </c>
       <c r="G23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H23">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="1:8">
       <c r="A24">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="B24">
-        <v>2258</v>
+        <v>1868</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="E24">
-        <v>2258</v>
+        <v>1868</v>
       </c>
       <c r="F24">
-        <v>3811</v>
+        <v>1968</v>
       </c>
       <c r="G24" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>2321</v>
+        <v>1929</v>
       </c>
       <c r="C25">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="D25">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E25">
-        <v>2321</v>
+        <v>1929</v>
       </c>
       <c r="F25">
-        <v>2540</v>
+        <v>3185</v>
       </c>
       <c r="G25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
       <c r="A26">
+        <v>17</v>
+      </c>
+      <c r="B26">
+        <v>2012</v>
+      </c>
+      <c r="C26">
         <v>4</v>
       </c>
-      <c r="B26">
-        <v>2334</v>
-      </c>
-      <c r="C26">
-        <v>8</v>
-      </c>
       <c r="D26">
-        <v>35</v>
+        <v>23</v>
       </c>
       <c r="E26">
-        <v>2334</v>
+        <v>2012</v>
       </c>
       <c r="F26">
-        <v>3642</v>
+        <v>2978</v>
       </c>
       <c r="G26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="B27">
-        <v>2359</v>
+        <v>2098</v>
       </c>
       <c r="C27">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D27">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E27">
-        <v>2359</v>
+        <v>2098</v>
       </c>
       <c r="F27">
-        <v>2635</v>
+        <v>2186</v>
       </c>
       <c r="G27" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
       <c r="A28">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="B28">
-        <v>2387</v>
+        <v>2101</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="D28">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="E28">
-        <v>2387</v>
+        <v>2101</v>
       </c>
       <c r="F28">
-        <v>2562</v>
+        <v>3447</v>
       </c>
       <c r="G28" t="s">
         <v>10</v>
       </c>
       <c r="H28">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
       <c r="A29">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="B29">
-        <v>2531</v>
+        <v>2131</v>
       </c>
       <c r="C29">
+        <v>38</v>
+      </c>
+      <c r="D29">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2131</v>
+      </c>
+      <c r="F29">
+        <v>2214</v>
+      </c>
+      <c r="G29" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29">
         <v>1</v>
-      </c>
-      <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29">
-        <v>2531</v>
-      </c>
-      <c r="F29">
-        <v>2810</v>
-      </c>
-      <c r="G29" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29">
-        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
       <c r="A30">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B30">
-        <v>2727</v>
+        <v>2172</v>
       </c>
       <c r="C30">
         <v>17</v>
       </c>
       <c r="D30">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E30">
-        <v>2727</v>
+        <v>2172</v>
       </c>
       <c r="F30">
-        <v>3015</v>
+        <v>2259</v>
       </c>
       <c r="G30" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:8">
       <c r="A31">
+        <v>14</v>
+      </c>
+      <c r="B31">
+        <v>2194</v>
+      </c>
+      <c r="C31">
         <v>8</v>
       </c>
-      <c r="B31">
-        <v>2738</v>
-      </c>
-      <c r="C31">
-        <v>4</v>
-      </c>
       <c r="D31">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="E31">
-        <v>2738</v>
+        <v>2194</v>
       </c>
       <c r="F31">
-        <v>2996</v>
+        <v>2289</v>
       </c>
       <c r="G31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H31">
         <v>2</v>
@@ -1221,25 +1221,25 @@
     </row>
     <row r="32" spans="1:8">
       <c r="A32">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B32">
-        <v>2842</v>
+        <v>2202</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>40</v>
       </c>
       <c r="D32">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="E32">
-        <v>2842</v>
+        <v>2202</v>
       </c>
       <c r="F32">
-        <v>2998</v>
+        <v>3349</v>
       </c>
       <c r="G32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H32">
         <v>2</v>
@@ -1247,155 +1247,155 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B33">
-        <v>2855</v>
+        <v>2345</v>
       </c>
       <c r="C33">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D33">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="E33">
-        <v>2855</v>
+        <v>2345</v>
       </c>
       <c r="F33">
-        <v>4641</v>
+        <v>2487</v>
       </c>
       <c r="G33" t="s">
         <v>10</v>
       </c>
       <c r="H33">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="1:8">
       <c r="A34">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34">
-        <v>2918</v>
+        <v>2425</v>
       </c>
       <c r="C34">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>2918</v>
+        <v>2425</v>
       </c>
       <c r="F34">
-        <v>3933</v>
+        <v>4207</v>
       </c>
       <c r="G34" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="A35">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>2925</v>
+        <v>2735</v>
       </c>
       <c r="C35">
         <v>11</v>
       </c>
       <c r="D35">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>2925</v>
+        <v>2735</v>
       </c>
       <c r="F35">
-        <v>4656</v>
+        <v>3870</v>
       </c>
       <c r="G35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="A36">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="B36">
-        <v>3059</v>
+        <v>3049</v>
       </c>
       <c r="C36">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="D36">
         <v>32</v>
       </c>
       <c r="E36">
-        <v>3059</v>
+        <v>3049</v>
       </c>
       <c r="F36">
-        <v>4345</v>
+        <v>3159</v>
       </c>
       <c r="G36" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H36">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="A37">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B37">
-        <v>3166</v>
+        <v>3325</v>
       </c>
       <c r="C37">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="D37">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="E37">
-        <v>3166</v>
+        <v>3325</v>
       </c>
       <c r="F37">
-        <v>4378</v>
+        <v>4975</v>
       </c>
       <c r="G37" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H37">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:8">
       <c r="A38">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>3381</v>
+        <v>3372</v>
       </c>
       <c r="C38">
-        <v>32</v>
+        <v>3</v>
       </c>
       <c r="D38">
         <v>13</v>
       </c>
       <c r="E38">
-        <v>3381</v>
+        <v>3372</v>
       </c>
       <c r="F38">
-        <v>3647</v>
+        <v>3477</v>
       </c>
       <c r="G38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="H38">
         <v>2</v>
@@ -1403,77 +1403,77 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B39">
-        <v>3409</v>
+        <v>3381</v>
       </c>
       <c r="C39">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D39">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="E39">
-        <v>3409</v>
+        <v>3381</v>
       </c>
       <c r="F39">
-        <v>5209</v>
+        <v>5097</v>
       </c>
       <c r="G39" t="s">
         <v>9</v>
       </c>
       <c r="H39">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:8">
       <c r="A40">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B40">
-        <v>3443</v>
+        <v>3421</v>
       </c>
       <c r="C40">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D40">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="E40">
-        <v>3443</v>
+        <v>3421</v>
       </c>
       <c r="F40">
-        <v>5076</v>
+        <v>3536</v>
       </c>
       <c r="G40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:8">
       <c r="A41">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B41">
-        <v>3487</v>
+        <v>3422</v>
       </c>
       <c r="C41">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D41">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="E41">
-        <v>3487</v>
+        <v>3422</v>
       </c>
       <c r="F41">
-        <v>3700</v>
+        <v>4548</v>
       </c>
       <c r="G41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H41">
         <v>1</v>
